--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_37.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_37.xlsx
@@ -512,46 +512,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9929197322180321</v>
+        <v>0.8342548226999932</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8015028531373023</v>
+        <v>0.6010273609115804</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7361034139100306</v>
+        <v>0.7297059099231056</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9887038164632743</v>
+        <v>0.6161275892417035</v>
       </c>
       <c r="F2" t="n">
-        <v>0.02947180366316574</v>
+        <v>0.3928479985489056</v>
       </c>
       <c r="G2" t="n">
-        <v>1.327351335066179</v>
+        <v>2.667931874684343</v>
       </c>
       <c r="H2" t="n">
-        <v>0.9439427868405834</v>
+        <v>0.9668262876532199</v>
       </c>
       <c r="I2" t="n">
-        <v>0.04628211895563274</v>
+        <v>0.2907044602385453</v>
       </c>
       <c r="J2" t="n">
-        <v>0.4685058595633901</v>
+        <v>1.179201800451732</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1716735380399837</v>
+        <v>0.6267758758510937</v>
       </c>
       <c r="L2" t="n">
-        <v>1.453137138045946</v>
+        <v>0.7743044394212673</v>
       </c>
       <c r="M2" t="n">
-        <v>0.174377224653535</v>
+        <v>0.6366469693497364</v>
       </c>
       <c r="N2" t="n">
-        <v>137.0486425614808</v>
+        <v>35.8686650281374</v>
       </c>
       <c r="O2" t="n">
-        <v>278.3838151046972</v>
+        <v>72.83324861636322</v>
       </c>
     </row>
     <row r="3">
@@ -561,46 +561,46 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9928486015966868</v>
+        <v>0.8337169378509213</v>
       </c>
       <c r="C3" t="n">
-        <v>0.8014268590203939</v>
+        <v>0.6006563880597264</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7357617596519158</v>
+        <v>0.7299116996267933</v>
       </c>
       <c r="E3" t="n">
-        <v>0.988841194229291</v>
+        <v>0.6185111929960019</v>
       </c>
       <c r="F3" t="n">
-        <v>0.02976788677347822</v>
+        <v>0.3941228892567373</v>
       </c>
       <c r="G3" t="n">
-        <v>1.327859508075866</v>
+        <v>2.670412571852864</v>
       </c>
       <c r="H3" t="n">
-        <v>0.9451648643116083</v>
+        <v>0.9660901898155019</v>
       </c>
       <c r="I3" t="n">
-        <v>0.04571926212102385</v>
+        <v>0.2888993702570926</v>
       </c>
       <c r="J3" t="n">
-        <v>0.4720954826840953</v>
+        <v>1.184276902651059</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1725337264811672</v>
+        <v>0.6277920748597717</v>
       </c>
       <c r="L3" t="n">
-        <v>1.457689497812048</v>
+        <v>0.7735720004778502</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1752509602027942</v>
+        <v>0.6376791724769749</v>
       </c>
       <c r="N3" t="n">
-        <v>137.0286501831544</v>
+        <v>35.86218503329714</v>
       </c>
       <c r="O3" t="n">
-        <v>278.3638227263708</v>
+        <v>72.82676862152296</v>
       </c>
     </row>
     <row r="4">
@@ -610,46 +610,46 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9927807314511573</v>
+        <v>0.833164237296434</v>
       </c>
       <c r="C4" t="n">
-        <v>0.8013516457850267</v>
+        <v>0.6002736663238962</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7354579882881203</v>
+        <v>0.7301216716699733</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9890061126330119</v>
+        <v>0.6209141673788336</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03005039806616237</v>
+        <v>0.3954328960404291</v>
       </c>
       <c r="G4" t="n">
-        <v>1.328362459327092</v>
+        <v>2.672971833862631</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9462514368662291</v>
+        <v>0.9653391319919254</v>
       </c>
       <c r="I4" t="n">
-        <v>0.04504356725875747</v>
+        <v>0.287079611005449</v>
       </c>
       <c r="J4" t="n">
-        <v>0.4754787200368099</v>
+        <v>1.189489328305251</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1733505063914218</v>
+        <v>0.6288345537901278</v>
       </c>
       <c r="L4" t="n">
-        <v>1.462033187125932</v>
+        <v>0.7728193869568463</v>
       </c>
       <c r="M4" t="n">
-        <v>0.1760806035801549</v>
+        <v>0.6387380694083874</v>
       </c>
       <c r="N4" t="n">
-        <v>137.0097587425891</v>
+        <v>35.85554834968254</v>
       </c>
       <c r="O4" t="n">
-        <v>278.3449312858056</v>
+        <v>72.82013193790836</v>
       </c>
     </row>
     <row r="5">
@@ -659,46 +659,46 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9926997482904283</v>
+        <v>0.832597256352366</v>
       </c>
       <c r="C5" t="n">
-        <v>0.8012727092915441</v>
+        <v>0.5998794987243119</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7351277802371838</v>
+        <v>0.730334234840752</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9891159679679149</v>
+        <v>0.6233276410763084</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03038749263469102</v>
+        <v>0.3967767500983319</v>
       </c>
       <c r="G5" t="n">
-        <v>1.328890308022479</v>
+        <v>2.675607634416027</v>
       </c>
       <c r="H5" t="n">
-        <v>0.947432571917866</v>
+        <v>0.9645788058551711</v>
       </c>
       <c r="I5" t="n">
-        <v>0.04459347385673691</v>
+        <v>0.2852519006807128</v>
       </c>
       <c r="J5" t="n">
-        <v>0.47932102467132</v>
+        <v>1.194819732772972</v>
       </c>
       <c r="K5" t="n">
-        <v>0.1743200867217861</v>
+        <v>0.629902175022703</v>
       </c>
       <c r="L5" t="n">
-        <v>1.46721610941259</v>
+        <v>0.7720473277989666</v>
       </c>
       <c r="M5" t="n">
-        <v>0.1770654538314976</v>
+        <v>0.6398225046081459</v>
       </c>
       <c r="N5" t="n">
-        <v>136.987448363439</v>
+        <v>35.84876299758054</v>
       </c>
       <c r="O5" t="n">
-        <v>278.3226209066554</v>
+        <v>72.81334658580637</v>
       </c>
     </row>
     <row r="6">
@@ -708,46 +708,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9926238173784274</v>
+        <v>0.8320163673443717</v>
       </c>
       <c r="C6" t="n">
-        <v>0.801189640882158</v>
+        <v>0.599473875429881</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7347584541377858</v>
+        <v>0.7305482692149551</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9892600436547423</v>
+        <v>0.6257441832238643</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0307035570830095</v>
+        <v>0.3981535689469224</v>
       </c>
       <c r="G6" t="n">
-        <v>1.329445786858538</v>
+        <v>2.67832003925361</v>
       </c>
       <c r="H6" t="n">
-        <v>0.9487536299606553</v>
+        <v>0.9638132173090725</v>
       </c>
       <c r="I6" t="n">
-        <v>0.04400317465925299</v>
+        <v>0.2834218666356476</v>
       </c>
       <c r="J6" t="n">
-        <v>0.4830027537282099</v>
+        <v>1.200292354929416</v>
       </c>
       <c r="K6" t="n">
-        <v>0.1752243050578586</v>
+        <v>0.6309941116578842</v>
       </c>
       <c r="L6" t="n">
-        <v>1.472075687780645</v>
+        <v>0.7712563300008466</v>
       </c>
       <c r="M6" t="n">
-        <v>0.1779839127024766</v>
+        <v>0.6409316381537951</v>
       </c>
       <c r="N6" t="n">
-        <v>136.9667535304097</v>
+        <v>35.84183499298772</v>
       </c>
       <c r="O6" t="n">
-        <v>278.3019260736261</v>
+        <v>72.80641858121355</v>
       </c>
     </row>
     <row r="7">
@@ -757,46 +757,46 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9925354797307218</v>
+        <v>0.8314218470180306</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8010992704382163</v>
+        <v>0.5990568071110733</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7343982936046807</v>
+        <v>0.7307614771415688</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9893528581115874</v>
+        <v>0.6281560506154791</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0310712648999194</v>
+        <v>0.399562696645866</v>
       </c>
       <c r="G7" t="n">
-        <v>1.330050094433294</v>
+        <v>2.681108977021899</v>
       </c>
       <c r="H7" t="n">
-        <v>0.9500419033042646</v>
+        <v>0.9630505849180812</v>
       </c>
       <c r="I7" t="n">
-        <v>0.04362290023129775</v>
+        <v>0.281595372757483</v>
       </c>
       <c r="J7" t="n">
-        <v>0.4870127605733067</v>
+        <v>1.206030558076763</v>
       </c>
       <c r="K7" t="n">
-        <v>0.1762704311559923</v>
+        <v>0.6321097188351608</v>
       </c>
       <c r="L7" t="n">
-        <v>1.477729297233807</v>
+        <v>0.770446770407531</v>
       </c>
       <c r="M7" t="n">
-        <v>0.1790465142409134</v>
+        <v>0.6420648150289158</v>
       </c>
       <c r="N7" t="n">
-        <v>136.9429436902228</v>
+        <v>35.83476917660471</v>
       </c>
       <c r="O7" t="n">
-        <v>278.2781162334392</v>
+        <v>72.79935276483053</v>
       </c>
     </row>
     <row r="8">
@@ -806,46 +806,46 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9924528896686445</v>
+        <v>0.8308141428900885</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8010080187738959</v>
+        <v>0.598628265495648</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7340270823552818</v>
+        <v>0.7309725889116951</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9894833335820359</v>
+        <v>0.6305592868407035</v>
       </c>
       <c r="F8" t="n">
-        <v>0.03141504823820899</v>
+        <v>0.4010030724942677</v>
       </c>
       <c r="G8" t="n">
-        <v>1.330660294732779</v>
+        <v>2.683974636777501</v>
       </c>
       <c r="H8" t="n">
-        <v>0.9513697044192994</v>
+        <v>0.9622954503573031</v>
       </c>
       <c r="I8" t="n">
-        <v>0.04308832311288772</v>
+        <v>0.2797754152140389</v>
       </c>
       <c r="J8" t="n">
-        <v>0.4907447988147873</v>
+        <v>1.211868206250351</v>
       </c>
       <c r="K8" t="n">
-        <v>0.1772429074411978</v>
+        <v>0.6332480339442577</v>
       </c>
       <c r="L8" t="n">
-        <v>1.48301506120675</v>
+        <v>0.7696192584035247</v>
       </c>
       <c r="M8" t="n">
-        <v>0.1800343060554912</v>
+        <v>0.6432210574630832</v>
       </c>
       <c r="N8" t="n">
-        <v>136.9209365152265</v>
+        <v>35.82757237924891</v>
       </c>
       <c r="O8" t="n">
-        <v>278.2561090584429</v>
+        <v>72.79215596747473</v>
       </c>
     </row>
     <row r="9">
@@ -855,46 +855,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.9923693260154954</v>
+        <v>0.830193304525076</v>
       </c>
       <c r="C9" t="n">
-        <v>0.8009180988988267</v>
+        <v>0.5981881265710504</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7336445854038265</v>
+        <v>0.7311796693011096</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9896195146766268</v>
+        <v>0.6329478157388395</v>
       </c>
       <c r="F9" t="n">
-        <v>0.03176288417532708</v>
+        <v>0.402474579014642</v>
       </c>
       <c r="G9" t="n">
-        <v>1.331261589351411</v>
+        <v>2.686917847792939</v>
       </c>
       <c r="H9" t="n">
-        <v>0.9527378738362076</v>
+        <v>0.9615547358115785</v>
       </c>
       <c r="I9" t="n">
-        <v>0.04253036921643511</v>
+        <v>0.2779665954483123</v>
       </c>
       <c r="J9" t="n">
-        <v>0.4944606604139234</v>
+        <v>1.217803808153339</v>
       </c>
       <c r="K9" t="n">
-        <v>0.1782214470127742</v>
+        <v>0.6344088421630344</v>
       </c>
       <c r="L9" t="n">
-        <v>1.488363135008292</v>
+        <v>0.7687738614809545</v>
       </c>
       <c r="M9" t="n">
-        <v>0.1810282566471393</v>
+        <v>0.6444001472509232</v>
       </c>
       <c r="N9" t="n">
-        <v>136.8989136703212</v>
+        <v>35.8202466836913</v>
       </c>
       <c r="O9" t="n">
-        <v>278.2340862135376</v>
+        <v>72.78483027191712</v>
       </c>
     </row>
     <row r="10">
@@ -904,46 +904,46 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9922777233415584</v>
+        <v>0.8295595637042757</v>
       </c>
       <c r="C10" t="n">
-        <v>0.8008237102518934</v>
+        <v>0.5977363532736725</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7332292175702793</v>
+        <v>0.73138124080494</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9897272376483643</v>
+        <v>0.6353175804699409</v>
       </c>
       <c r="F10" t="n">
-        <v>0.03214418275109149</v>
+        <v>0.4039766668406995</v>
       </c>
       <c r="G10" t="n">
-        <v>1.331892766668074</v>
+        <v>2.68993885791273</v>
       </c>
       <c r="H10" t="n">
-        <v>0.9542236204923955</v>
+        <v>0.9608337262301644</v>
       </c>
       <c r="I10" t="n">
-        <v>0.04208901241871617</v>
+        <v>0.2761719856828271</v>
       </c>
       <c r="J10" t="n">
-        <v>0.4984775937853672</v>
+        <v>1.224675391495993</v>
       </c>
       <c r="K10" t="n">
-        <v>0.1792879883067783</v>
+        <v>0.6355915880820793</v>
       </c>
       <c r="L10" t="n">
-        <v>1.494225706140263</v>
+        <v>0.7679108952568862</v>
       </c>
       <c r="M10" t="n">
-        <v>0.1821115949003739</v>
+        <v>0.6456015202358808</v>
       </c>
       <c r="N10" t="n">
-        <v>136.8750475710767</v>
+        <v>35.81279631606739</v>
       </c>
       <c r="O10" t="n">
-        <v>278.2102201142931</v>
+        <v>72.77737990429321</v>
       </c>
     </row>
     <row r="11">
@@ -953,46 +953,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9921813931615239</v>
+        <v>0.8289131232783774</v>
       </c>
       <c r="C11" t="n">
-        <v>0.8007293251513721</v>
+        <v>0.5972727123293129</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7328571441074576</v>
+        <v>0.7315750675889725</v>
       </c>
       <c r="E11" t="n">
-        <v>0.989823728929382</v>
+        <v>0.6376643917677813</v>
       </c>
       <c r="F11" t="n">
-        <v>0.03254515969719551</v>
+        <v>0.4055088551772302</v>
       </c>
       <c r="G11" t="n">
-        <v>1.332523920269863</v>
+        <v>2.693039227042533</v>
       </c>
       <c r="H11" t="n">
-        <v>0.9555545056948492</v>
+        <v>0.9601404190624029</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0416936735034341</v>
+        <v>0.2743947584257998</v>
       </c>
       <c r="J11" t="n">
-        <v>0.5024297856689028</v>
+        <v>1.23171424260364</v>
       </c>
       <c r="K11" t="n">
-        <v>0.1804027707580887</v>
+        <v>0.6367957719530102</v>
       </c>
       <c r="L11" t="n">
-        <v>1.500390837662472</v>
+        <v>0.7670306359535352</v>
       </c>
       <c r="M11" t="n">
-        <v>0.1832439340609188</v>
+        <v>0.6468246687990368</v>
       </c>
       <c r="N11" t="n">
-        <v>136.8502532500084</v>
+        <v>35.80522513598013</v>
       </c>
       <c r="O11" t="n">
-        <v>278.1854257932249</v>
+        <v>72.76980872420594</v>
       </c>
     </row>
   </sheetData>
